--- a/Fulton Hogan NZ/36671/res_comb.xlsx
+++ b/Fulton Hogan NZ/36671/res_comb.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Fulton Hogan NZ\36671\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D612BB-BF92-43A3-B6EE-51244B15F829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E05BA5-B03B-4B6F-A435-A66773712AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11595" yWindow="3165" windowWidth="26775" windowHeight="17745" xr2:uid="{65367736-637D-4BB6-AE35-BC415DE60E9F}"/>
+    <workbookView xWindow="11190" yWindow="3225" windowWidth="27210" windowHeight="17655" xr2:uid="{65367736-637D-4BB6-AE35-BC415DE60E9F}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">res!$A$1:$I$162</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">res!$A$1:$I$1036</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1913" uniqueCount="399">
   <si>
     <t>type</t>
   </si>
@@ -92,13 +92,1147 @@
     <t>note</t>
   </si>
   <si>
-    <t>Prepared by: Daniel Tat</t>
-  </si>
-  <si>
-    <t>Approving Delegate: Daeyoung Jeong</t>
-  </si>
-  <si>
     <t>ITP - ETPO - Enabling Works - Footpath, Kerb and channel</t>
+  </si>
+  <si>
+    <t>1 - Site Set out</t>
+  </si>
+  <si>
+    <t>VERIFICATION ACTIVITY: Surveyor</t>
+  </si>
+  <si>
+    <t>METHODS OR REFERENCE: Surveyor</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Everysite</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Site Set out as per construction plan provided with GPS location and 3D model provided by designers. Site set out inspected with designers/MSQA and client ensure criterea is acceptable.</t>
+  </si>
+  <si>
+    <t>HOLD POINT: Mandatory HOLD POINT -</t>
+  </si>
+  <si>
+    <t>RECORDS: Onsite records/photos</t>
+  </si>
+  <si>
+    <t>ONSITE RESPONSIBILITY: Site Engineer</t>
+  </si>
+  <si>
+    <t>VERIFICATION ACTIVITY: QA FORM</t>
+  </si>
+  <si>
+    <t>METHODS OR REFERENCE: TDM Technical Standards - KC0001</t>
+  </si>
+  <si>
+    <t>RECORDS: FH concrete QA sheet, photos. Concrete Plant Docket</t>
+  </si>
+  <si>
+    <t>METHODS OR REFERENCE: TDM Technical Standards - KC0002</t>
+  </si>
+  <si>
+    <t>3 - Extruded Cycle Kerb- TYPE 15</t>
+  </si>
+  <si>
+    <t>METHODS OR REFERENCE: TDM Technical Standards - KC0003</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Extruded Kerb to be laid on site using machine or hand. On compacted GAP40. Concrete 25MPa fibre reinforcedfor machine laid or 20 Mpa standard concrete for hand laid @28 Days on 100mm GAP40</t>
+  </si>
+  <si>
+    <t>4 - Channel Level</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Channels must be laid to flow water in the direction of the nearest cesspit in a manner such that no water ponds and match existing road level</t>
+  </si>
+  <si>
+    <t>HOLD POINT: Inprocess Inspection</t>
+  </si>
+  <si>
+    <t>RECORDS: FH concrete QA sheet, Photos</t>
+  </si>
+  <si>
+    <t>5 - Concrete Footpaths and Pram Crossings</t>
+  </si>
+  <si>
+    <t>METHODS OR REFERENCE: TDM Technical Standards - FP0001</t>
+  </si>
+  <si>
+    <t>FREQUENCY: 10m Intervals</t>
+  </si>
+  <si>
+    <t>6 - Shared footpath</t>
+  </si>
+  <si>
+    <t>7 - Tactiles</t>
+  </si>
+  <si>
+    <t>VERIFICATION ACTIVITY:</t>
+  </si>
+  <si>
+    <t>METHODS OR REFERENCE: TDM Technical Standards - FP0010</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each PX</t>
+  </si>
+  <si>
+    <t>HOLD POINT: Inprocess Inspection, Measurement</t>
+  </si>
+  <si>
+    <t>VERIFICATION ACTIVITY: Visual</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Tactile to be yellow/ green concrete paver slab type. Tactile indicators shall be aligned such as warning tiles are perpendicular to the line of crossing.</t>
+  </si>
+  <si>
+    <t>RECORDS: Photos</t>
+  </si>
+  <si>
+    <t>METHODS OR REFERENCE: AS/NZS 1428.4:2009 DESIGN FOR ACCESS AND MOBILITY</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Edge of warning indicators to set back 300mm from the face of the kerb or lane.</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: TGSI tiles should be sealed yellow/green pigmented 300mm*300mm*60mm concrete tile warning type B in footpath and pedestrian crossing</t>
+  </si>
+  <si>
+    <t>RECORDS: Materials Dockets</t>
+  </si>
+  <si>
+    <t>8 - As built information</t>
+  </si>
+  <si>
+    <t>VERIFICATION ACTIVITY: RAMM DATA SHEET</t>
+  </si>
+  <si>
+    <t>METHODS OR REFERENCE:</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Every Site</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: As built drawings and Ramm Sheets Completed</t>
+  </si>
+  <si>
+    <t>HOLD POINT: In Process Inspection</t>
+  </si>
+  <si>
+    <t>RECORDS: Asbuilt records</t>
+  </si>
+  <si>
+    <t>ONSITE RESPONSIBILITY: Supervisor and Engineer</t>
+  </si>
+  <si>
+    <t>Prepared by: Yeswanth Vemula</t>
+  </si>
+  <si>
+    <t>Approving Delegate: Sam</t>
+  </si>
+  <si>
+    <t>Asbuilts</t>
+  </si>
+  <si>
+    <t>7.3 - Tactiles</t>
+  </si>
+  <si>
+    <t>7.2 - Tactiles</t>
+  </si>
+  <si>
+    <t>7.1 - Tactiles</t>
+  </si>
+  <si>
+    <t>CIVIL WORKS</t>
+  </si>
+  <si>
+    <t>Materials</t>
+  </si>
+  <si>
+    <t>2 - Kerb &amp; Channel</t>
+  </si>
+  <si>
+    <t>3 - Extruded standard Kerb &amp; Channel- TYPE 3</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Extruded Kerb &amp; Channel to be laid on site using machine. On compacted GAP40. Concrete 25MPa fibre reinforced @28 Days on 100mm GAP40</t>
+  </si>
+  <si>
+    <t>holdpoint</t>
+  </si>
+  <si>
+    <t>AUTHORITY HOLDPOINT</t>
+  </si>
+  <si>
+    <t>HOLD POINT: Inprocess Inspection - Engineer to check the Stringline Set out</t>
+  </si>
+  <si>
+    <t>○ Clegg CIV &gt; 15</t>
+  </si>
+  <si>
+    <t>○ Expansion Joint cut for every 3m interval</t>
+  </si>
+  <si>
+    <t>○ Pram crossing to have 600mm flare from kerb; Minmum 1.5m deep and wide.</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Subgrade Improvement materials( If Subgrade CBR &lt;3.5%)- 300mm SIL materials</t>
+  </si>
+  <si>
+    <t>○ Single layer 665 mesh with 50mm cover (for concrete slabs with service covers)</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Tile set out position to be agreed with ATOC and Engineer.</t>
+  </si>
+  <si>
+    <t>○ Warning TGSI tiles should have 100mm concrete slab underneath</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Kerb &amp; Channel to be laid using precast hand-laid. On compacted GAP40. Concrete 20MPa @28 Days on 100mm GAP40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">○ Surfacing - Concrete 100mm and 20 MPa @ 28 days. 4kg/m3 blackoxide with broom finish </t>
+  </si>
+  <si>
+    <t>RECORDS: FH concrete QA sheet. Concrete delivery Dockets kept as record, Photos</t>
+  </si>
+  <si>
+    <t>METHODS OR REFERENCE: Pavement Details- 5 (3236765-CA-3010)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">○ Surfacing - Concrete 150mm and 20 MPa @ 28 days. 4kg/m3 blackoxide with exposed finish </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCEPTANCE CRITERIA: Basecourse - 100mm min. thickness GAP40 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">○ Basecourse - 100mm min. thickness GAP40 </t>
+  </si>
+  <si>
+    <t>METHODS OR REFERENCE: NZTA RTS Guidelines for facilities for blind and vision impared pedestrians AS/NZS 1428.4:2009 DESIGN FOR ACCESS AND MOBILITY</t>
+  </si>
+  <si>
+    <t>ITP - ETPO - Enabling Works - Vehicle Crossings</t>
+  </si>
+  <si>
+    <t>RECORDS: Survey Receipt</t>
+  </si>
+  <si>
+    <t>2 - Channel Level</t>
+  </si>
+  <si>
+    <t>METHODS OR REFERENCE: TDM Technical Standards - VX0000</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Every site</t>
+  </si>
+  <si>
+    <t>RECORDS: FH concrete QA sheet</t>
+  </si>
+  <si>
+    <t>3 - Mesh &amp; Steel</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: 661 Mesh and/or D12 Bars to be installed if 4&gt; dwellings or commercial crossing</t>
+  </si>
+  <si>
+    <t>4a - Vehicle Crossing</t>
+  </si>
+  <si>
+    <t>METHODS OR REFERENCE: TDM Technical Standards - VX103</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each VX</t>
+  </si>
+  <si>
+    <t>4b - Commercial Crossing</t>
+  </si>
+  <si>
+    <t>METHODS OR REFERENCE: TDM Technical Standards - VX0202</t>
+  </si>
+  <si>
+    <t>5 - Grass Berms</t>
+  </si>
+  <si>
+    <t>METHODS OR REFERENCE: ATCOP Section 12 Footpaths and Pedestrian Facilities</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: 100mm thick layer of compacted approved quality topsoil, free of weeds and stones.</t>
+  </si>
+  <si>
+    <t>6 - As built information</t>
+  </si>
+  <si>
+    <t>Prepared by: Yeswanth</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Site Set out as per construction plan provided with GPS location and 3D model provided by designers. Site set out inspected with designers/MSQA and client ensure criteria is acceptable.</t>
+  </si>
+  <si>
+    <t>○ Alternatively like for like</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Subgrade -(CBR &gt; 3)</t>
+  </si>
+  <si>
+    <t>○ Surfacing - Concrete 150mm and 20 MPa @ 28 days. 4kg/m3 black oxide</t>
+  </si>
+  <si>
+    <t>○ Exposed Finish</t>
+  </si>
+  <si>
+    <t>○ Surfacing - Concrete 200mm and 20 MPa @ 28 days. 4kg/m3 black oxide</t>
+  </si>
+  <si>
+    <t>RECORDS: FH concrete QA sheet. Concrete delivery Dockets kept as record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">○ Base course - 100mm min. thickness GAP40 </t>
+  </si>
+  <si>
+    <t>ITP - ETPO - Traffic Islands</t>
+  </si>
+  <si>
+    <t>1 - Standard Mountable Kerb</t>
+  </si>
+  <si>
+    <t>METHODS OR REFERENCE: TDM Technical Standards - IS0001 &amp; IS0002</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Mountable Kerb to be laid using precast hand-laid and painted with two coats of reflective paint</t>
+  </si>
+  <si>
+    <t>RECORDS: FH concrete QA sheet, photos.</t>
+  </si>
+  <si>
+    <t>2 - Mountable Kerb- TYPE 20 Extruded</t>
+  </si>
+  <si>
+    <t>METHODS OR REFERENCE: TDM Technical Standards - IS0001 &amp; KC0005</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Type 20 extruded mountable Kerb to be laid on site using machine and painted with two coats of reflective paint</t>
+  </si>
+  <si>
+    <t>3 - Survey Setout</t>
+  </si>
+  <si>
+    <t>VERIFICATION ACTIVITY: Survey</t>
+  </si>
+  <si>
+    <t>METHODS OR REFERENCE: Setout Kerb Alignment required to construct to design</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Prior to commencement.</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Survey</t>
+  </si>
+  <si>
+    <t>HOLD POINT: As per Construction Drawings</t>
+  </si>
+  <si>
+    <t>RECORDS: Survey Receipt.</t>
+  </si>
+  <si>
+    <t>4 - Concrete Island</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each Site</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Kerbs to be haunced with 20MPa Concrete</t>
+  </si>
+  <si>
+    <t>5 - Standard Mountable Kerb</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Basecourse to be 150mm min thickness of GAP65</t>
+  </si>
+  <si>
+    <t>6 - Type 20 Extruded Mountable Kerb</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Basecourse to be 300mm min thickness of GAP65</t>
+  </si>
+  <si>
+    <t>7 - Concrete Infil- Extruded Mountable Kerb</t>
+  </si>
+  <si>
+    <t>METHODS OR REFERENCE: TDM Technical Standards - IS0001</t>
+  </si>
+  <si>
+    <t>8 - Concrete Infil- Standard Mountable Kerb</t>
+  </si>
+  <si>
+    <t>METHODS OR REFERENCE: TDM Technical Standards - IS0002</t>
+  </si>
+  <si>
+    <t>9 - As built information</t>
+  </si>
+  <si>
+    <t>VERIFICATION ACTIVITY: Drawings</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: As built drawings</t>
+  </si>
+  <si>
+    <t>10 - RAMM DATA</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: RAMM SHEET</t>
+  </si>
+  <si>
+    <t>HOLD POINT: Inprocess Inspection - Engineer to check kerb stringline before laying</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: 180mm depth of 20MPa broom finish, unreinforced Concrete with 4kg/m3 Red oxide</t>
+  </si>
+  <si>
+    <t>○ Cross Fall of 2% or max rise in centre of 180mm</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: 150mm depth of 20MPa broom finish, unreinforced Concrete with 4kg/m3 Red oxide</t>
+  </si>
+  <si>
+    <t>○ Cross Fall of 2% or max rise in centre of 150mm</t>
+  </si>
+  <si>
+    <t>ITP - ETPO - Signage</t>
+  </si>
+  <si>
+    <t>2 - Signs/Belisha Disk</t>
+  </si>
+  <si>
+    <t>METHODS OR REFERENCE: TDM Technical Standards</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: All signs to looking in excellent condition. Signs to have good reflection and visibility. NO scratches or markings. All signs to match with construction drawings provided by designers.</t>
+  </si>
+  <si>
+    <t>RECORDS: Dockets/Photos</t>
+  </si>
+  <si>
+    <t>3 - Pole, Impact recovery post and Ground Socket</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Check for underground service before installtion. All poles and post to be looking in excellent conditon with end caps - 3m long. Ground socket to be 60mm dia, 600mm deep with grouted screw or pins. For Black and white pole 76mm dia and 600mm deep</t>
+  </si>
+  <si>
+    <t>4a - Ground Socket</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each Socket</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: The dug out hole to be 300mm wide and 600mm deep. 20Mpa concrete with 50mm cover at bottom to be used for installing socket. The sockets to have 50mm reveal at top and smooth finish of concrete around the socket.</t>
+  </si>
+  <si>
+    <t>RECORDS: Dockets/Photos with tape measurement</t>
+  </si>
+  <si>
+    <t>4b - Pole and Impact recovery post</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each Post or pole</t>
+  </si>
+  <si>
+    <t>5 - Signs/Belisha Disk</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each Sign</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: All the sign/Belisha disk to be fixed with the pole or post with ARC brackets and tightened adequately.</t>
+  </si>
+  <si>
+    <t>Approving Delegate: Nithin Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepared by: </t>
+  </si>
+  <si>
+    <t>textbox</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: All poles to inserted into the socket after the concrete curing. And, the screw or pins to be used to prevent thr pole rotation.</t>
+  </si>
+  <si>
+    <t>○ The impact recovery post installed on the island infill surface after curing period by drilling and using Dyna bolts. The bolts are tightned sufficent to prevent rotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITP - ETPO - Ducting &amp; Traffic Signals </t>
+  </si>
+  <si>
+    <t>Ducting</t>
+  </si>
+  <si>
+    <t>1 - Permits</t>
+  </si>
+  <si>
+    <t>ACTION (Hold, Monitor, Witness): H</t>
+  </si>
+  <si>
+    <t>DETAIL: Obtain Permits</t>
+  </si>
+  <si>
+    <t>FREQUENCY: As required</t>
+  </si>
+  <si>
+    <t>INSPECTION / TEST METHOD (Submission, Visual Inspection, Testing, Measurement, Review): Document Review</t>
+  </si>
+  <si>
+    <t>CONFORMANCE CRITERIA: Authorisation to work, dig permit and service provider permits</t>
+  </si>
+  <si>
+    <t>RECORDS: This ITP signed</t>
+  </si>
+  <si>
+    <t>2 - Design</t>
+  </si>
+  <si>
+    <t>DETAIL: Ensure that Design is approved and Drawings are of the latest revision</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Prior to commencement</t>
+  </si>
+  <si>
+    <t>CONFORMANCE CRITERIA:</t>
+  </si>
+  <si>
+    <t>RECORDS: Check Drawing Register</t>
+  </si>
+  <si>
+    <t>3 - Survey Setout (1)</t>
+  </si>
+  <si>
+    <t>DETAIL: Setout ducting alignment and EOS FL depths. Setout and mark all known services along the cable corridor.</t>
+  </si>
+  <si>
+    <t>INSPECTION / TEST METHOD (Submission, Visual Inspection, Testing, Measurement, Review): Survey</t>
+  </si>
+  <si>
+    <t>CONFORMANCE CRITERIA: Consistency with Drawings and Specifiactions</t>
+  </si>
+  <si>
+    <t>RECORDS: Survey Records</t>
+  </si>
+  <si>
+    <t>3 - Survey Setout (2)</t>
+  </si>
+  <si>
+    <t>DETAIL: Confirm with Engineer on site the exact location of all posts, foundations, signs, cable chambers, cable ducts, loops and loop termination boxes( Toby boxes) before installation.</t>
+  </si>
+  <si>
+    <t>INSPECTION / TEST METHOD (Submission, Visual Inspection, Testing, Measurement, Review): Visual Inspection</t>
+  </si>
+  <si>
+    <t>RECORDS: Photos / Engineers approval documentation</t>
+  </si>
+  <si>
+    <t>4 - Locate existing services by hand digging/ hydrovac</t>
+  </si>
+  <si>
+    <t>ACTION (Hold, Monitor, Witness): W</t>
+  </si>
+  <si>
+    <t>DETAIL: Ensure all services conflicting with the line of trench has been exposed by hand digging or hydro excavation</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Prior to Installation</t>
+  </si>
+  <si>
+    <t>INSPECTION / TEST METHOD (Submission, Visual Inspection, Testing, Measurement, Review): Potholing</t>
+  </si>
+  <si>
+    <t>CONFORMANCE CRITERIA: All conflicts have been located and survey as built recorded</t>
+  </si>
+  <si>
+    <t>RECORDS: Digging/Excavating Control Checklist</t>
+  </si>
+  <si>
+    <t>5 - Material Compliance (1)</t>
+  </si>
+  <si>
+    <t>DETAIL: Ensure duct pipes and poles are as per drawings and specification</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Upon delivery to site</t>
+  </si>
+  <si>
+    <t>INSPECTION / TEST METHOD (Submission, Visual Inspection, Testing, Measurement, Review): Ensure delivery docket matches materials</t>
+  </si>
+  <si>
+    <t>RECORDS: Delivery Docket</t>
+  </si>
+  <si>
+    <t>5 - Material Compliance (2)</t>
+  </si>
+  <si>
+    <t>DETAIL: Ensure all concrete used is 20MPa mix</t>
+  </si>
+  <si>
+    <t>6 - Trenching</t>
+  </si>
+  <si>
+    <t>DETAIL: Inspect trench profile to ensure walls vertical, widths is 300mm max (single ducts). Ensure trench depth is sufficient to provide 600mm cover to duct when under berm (900mm cover when under road crossing)</t>
+  </si>
+  <si>
+    <t>6.1 - Trenching</t>
+  </si>
+  <si>
+    <t>DETAIL: Ensure trench is cut in a manner that will ensure ducts are layed at correct depths,grades and alignment as per design dwgs</t>
+  </si>
+  <si>
+    <t>INSPECTION / TEST METHOD (Submission, Visual Inspection, Testing, Measurement, Review): Measure</t>
+  </si>
+  <si>
+    <t>RECORDS: Dipsheet &amp; Photos</t>
+  </si>
+  <si>
+    <t>7 - Duct Installation</t>
+  </si>
+  <si>
+    <t>DETAIL: Place proposed ducts in locations where required. Draw wire tapes required and cap ducts where required to prevent ingress of material into duct.</t>
+  </si>
+  <si>
+    <t>INSPECTION / TEST METHOD (Submission, Visual Inspection, Testing, Measurement, Review): Visual inspection</t>
+  </si>
+  <si>
+    <t>7.1 - Duct Installation</t>
+  </si>
+  <si>
+    <t>DETAIL: Ensure minimum spacing of ducts requirements are met as per design dwgs and ATCop min spacing tables</t>
+  </si>
+  <si>
+    <t>7.2 - Duct Installation</t>
+  </si>
+  <si>
+    <t>DETAIL: Asbuilt Survey</t>
+  </si>
+  <si>
+    <t>FREQUENCY: 20m Intervals</t>
+  </si>
+  <si>
+    <t>8 - Bedding</t>
+  </si>
+  <si>
+    <t>DETAIL: Lay min. 150mm gap20 or finer for bedding and haunching</t>
+  </si>
+  <si>
+    <t>9 - Warning Tape</t>
+  </si>
+  <si>
+    <t>DETAIL: Ensure warning tape gets installed 300mm above duct pipe for all new ducting lines.</t>
+  </si>
+  <si>
+    <t>10 - Traffic signal pole erection</t>
+  </si>
+  <si>
+    <t>DETAIL: Ensure Design engineer as inspected pole locations prior to proceeding</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Per pole</t>
+  </si>
+  <si>
+    <t>CONFORMANCE CRITERIA: Sign off by design engineer</t>
+  </si>
+  <si>
+    <t>RECORDS: Engineer sign off</t>
+  </si>
+  <si>
+    <t>10.1 - Traffic signal pole erection</t>
+  </si>
+  <si>
+    <t>DETAIL: Ensure Pot hole is as per design with required depths and widths</t>
+  </si>
+  <si>
+    <t>10.2 - Traffic signal pole erection</t>
+  </si>
+  <si>
+    <t>DETAIL: Ensure Poles are plumb and within design tolerances</t>
+  </si>
+  <si>
+    <t>11 - As-builts &amp; C&amp;I Diagram</t>
+  </si>
+  <si>
+    <t>DETAIL: As-built as per ATOC requirements</t>
+  </si>
+  <si>
+    <t>FREQUENCY: At the completion of the Lot of work</t>
+  </si>
+  <si>
+    <t>INSPECTION / TEST METHOD (Submission, Visual Inspection, Testing, Measurement, Review): Drawings</t>
+  </si>
+  <si>
+    <t>CONFORMANCE CRITERIA: As-built as per ATOC requirements</t>
+  </si>
+  <si>
+    <t>RECORDS: Asbuilt Drawing</t>
+  </si>
+  <si>
+    <t>QA Compiled By:</t>
+  </si>
+  <si>
+    <t>QA checked By Project manager:</t>
+  </si>
+  <si>
+    <t>QA checked By Contract Manager:</t>
+  </si>
+  <si>
+    <t>Accepted By Design/AT Engineer:</t>
+  </si>
+  <si>
+    <t>CONFORMANCE CRITERIA: Ensure trench alignment and levels match the design drawings</t>
+  </si>
+  <si>
+    <t>ITP - ETPO - Asphalt Works</t>
+  </si>
+  <si>
+    <t>1.1 - Bitumen</t>
+  </si>
+  <si>
+    <t>ACTION (Hold, Monitor, Witness): M</t>
+  </si>
+  <si>
+    <t>DETAIL: As per Design</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Passing all tests listed in Table 1 of NZTA M/1</t>
+  </si>
+  <si>
+    <t>INSPECTION / TEST METHOD (Submission, Visual Inspection, Testing, Measurement, Review): Passing all tests listed in Table 1 of NZTA M1/A (2019) and pavement design</t>
+  </si>
+  <si>
+    <t>CONFORMANCE CRITERIA: Testing/Visual</t>
+  </si>
+  <si>
+    <t>RECORDS: IANZ Lab results</t>
+  </si>
+  <si>
+    <t>1.2 - Asphalt Mix Design</t>
+  </si>
+  <si>
+    <t>DETAIL: JMF approved</t>
+  </si>
+  <si>
+    <t>FREQUENCY: JMF approved</t>
+  </si>
+  <si>
+    <t>INSPECTION / TEST METHOD (Submission, Visual Inspection, Testing, Measurement, Review): AUSTROADS -PMB AC20 &amp; PMB AC14</t>
+  </si>
+  <si>
+    <t>1.3 - Production Tests</t>
+  </si>
+  <si>
+    <t>DETAIL: NZTA M/10 spec</t>
+  </si>
+  <si>
+    <t>FREQUENCY: 1 set every 300t</t>
+  </si>
+  <si>
+    <t>INSPECTION / TEST METHOD (Submission, Visual Inspection, Testing, Measurement, Review): NZTA M/10</t>
+  </si>
+  <si>
+    <t>2.1 - Cut to Waste (635mm)</t>
+  </si>
+  <si>
+    <t>DETAIL: Dip from stringline or survey as-built</t>
+  </si>
+  <si>
+    <t>FREQUENCY: 10m each lane</t>
+  </si>
+  <si>
+    <t>INSPECTION / TEST METHOD (Submission, Visual Inspection, Testing, Measurement, Review): +0 / -20mm to design level</t>
+  </si>
+  <si>
+    <t>CONFORMANCE CRITERIA: Inprocess Inspection</t>
+  </si>
+  <si>
+    <t>RECORDS: Stringline Sheet</t>
+  </si>
+  <si>
+    <t>DETAIL: Scalar Testing, Shear vane testing and proof rolling if practical</t>
+  </si>
+  <si>
+    <t>RECORDS: Scalar sheet</t>
+  </si>
+  <si>
+    <t>2.3 - Subgrade Improvement Layer</t>
+  </si>
+  <si>
+    <t>DETAIL: CBR test</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Every 10m intervals</t>
+  </si>
+  <si>
+    <t>INSPECTION / TEST METHOD (Submission, Visual Inspection, Testing, Measurement, Review): CBR greater than 15%</t>
+  </si>
+  <si>
+    <t>RECORDS: Scala test sheet</t>
+  </si>
+  <si>
+    <t>2.3.1 - Geotextile or Geogrid</t>
+  </si>
+  <si>
+    <t>DETAIL: Visual inspection</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Throughout the surface</t>
+  </si>
+  <si>
+    <t>CONFORMANCE CRITERIA: Either Geo Textile or Geo grid can be placed below the Subgrade improvement layer</t>
+  </si>
+  <si>
+    <t>3.1 - Concrete Subbase</t>
+  </si>
+  <si>
+    <t>DETAIL: Concrete Dockets</t>
+  </si>
+  <si>
+    <t>FREQUENCY: each truck</t>
+  </si>
+  <si>
+    <t>INSPECTION / TEST METHOD (Submission, Visual Inspection, Testing, Measurement, Review): visual inspection</t>
+  </si>
+  <si>
+    <t>RECORDS: Concrete Dockets</t>
+  </si>
+  <si>
+    <t>4.1 - Emulsion tack coat</t>
+  </si>
+  <si>
+    <t>DETAIL: Dip emulsion tank</t>
+  </si>
+  <si>
+    <t>FREQUENCY: each lot</t>
+  </si>
+  <si>
+    <t>CONFORMANCE CRITERIA: Inprocess Testing</t>
+  </si>
+  <si>
+    <t>RECORDS: Spray sheet</t>
+  </si>
+  <si>
+    <t>4.2 - Blinding</t>
+  </si>
+  <si>
+    <t>DETAIL: Aggregate Supply</t>
+  </si>
+  <si>
+    <t>INSPECTION / TEST METHOD (Submission, Visual Inspection, Testing, Measurement, Review): Even application of blinding where required in accordance with the design drawings.</t>
+  </si>
+  <si>
+    <t>CONFORMANCE CRITERIA: Blinding mix or chip</t>
+  </si>
+  <si>
+    <t>4.3 - Chipseal</t>
+  </si>
+  <si>
+    <t>DETAIL: Bitumen Application</t>
+  </si>
+  <si>
+    <t>INSPECTION / TEST METHOD (Submission, Visual Inspection, Testing, Measurement, Review): Grade 4 membrane seal (minimum residual bitumen application of 1.0L/m2)</t>
+  </si>
+  <si>
+    <t>4.4 - AC 14 RW 30 -PG 64 H - 65mm</t>
+  </si>
+  <si>
+    <t>DETAIL: Forecast and thermometer</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Daily</t>
+  </si>
+  <si>
+    <t>RECORDS: AC check sheet</t>
+  </si>
+  <si>
+    <t>4.5 - AC 14 RW 30 -PG 64 H - 65mm</t>
+  </si>
+  <si>
+    <t>DETAIL: Asphalt Trace Sheet as part of QA</t>
+  </si>
+  <si>
+    <t>FREQUENCY: During construction</t>
+  </si>
+  <si>
+    <t>4.6 - AC 14 RW 30 -PG 64 H - 65mm</t>
+  </si>
+  <si>
+    <t>DETAIL: Visual</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Prior to starting</t>
+  </si>
+  <si>
+    <t>4.7 - AC 14 RW 30 -PG 64 H - 65mm</t>
+  </si>
+  <si>
+    <t>DETAIL: Grading, binder content, max density, temp</t>
+  </si>
+  <si>
+    <t>FREQUENCY: 1/300t</t>
+  </si>
+  <si>
+    <t>RECORDS: Lab test</t>
+  </si>
+  <si>
+    <t>4.8 - AC 14 RW 30 -PG 64 H - 65mm</t>
+  </si>
+  <si>
+    <t>DETAIL: Visual inspection by the Engineer</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each lot</t>
+  </si>
+  <si>
+    <t>RECORDS: Inspection sheet</t>
+  </si>
+  <si>
+    <t>4.9 - AC14 PMBRW15- PG 64 V (second layer)-55mm</t>
+  </si>
+  <si>
+    <t>4.1 - AC14 PMBRW15- PG 64 V (second layer)-55mm</t>
+  </si>
+  <si>
+    <t>4.11 - AC14 PMBRW15- PG 64 V (second layer)-55mm</t>
+  </si>
+  <si>
+    <t>4.12 - AC14 PMBRW15- PG 64 V (second layer)-55mm</t>
+  </si>
+  <si>
+    <t>4.13 - AC14 PMBRW15- PG 64 V (second layer)-55mm</t>
+  </si>
+  <si>
+    <t>4.14 - AC14 PMBRW15- PG 64 V (Top layer)-55mm</t>
+  </si>
+  <si>
+    <t>4.15 - AC14 PMBRW15- PG 64 V (Top layer)-55mm</t>
+  </si>
+  <si>
+    <t>4.16 - AC14 PMBRW15- PG 64 V (Top layer)-55mm</t>
+  </si>
+  <si>
+    <t>4.17 - AC14 PMBRW15- PG 64 V (Top layer)-55mm</t>
+  </si>
+  <si>
+    <t>4.18 - AC14 PMBRW15- PG 64 V (Top layer)-55mm</t>
+  </si>
+  <si>
+    <t>4.19 - AC14RW30 / AC14 PMB RW 15</t>
+  </si>
+  <si>
+    <t>FREQUENCY: grid pattern</t>
+  </si>
+  <si>
+    <t>DETAIL: NDM/Cores (Testing plan to be agreed with client)</t>
+  </si>
+  <si>
+    <t>RECORDS: Core test report</t>
+  </si>
+  <si>
+    <t>4.21 - AC14RW30 / AC14 PMB RW 15</t>
+  </si>
+  <si>
+    <t>DETAIL: Cores depth (Location plan to be agreed with client)</t>
+  </si>
+  <si>
+    <t>5.1 - Cut to Waste</t>
+  </si>
+  <si>
+    <t>6.1 - Subgrade Improvement Layer</t>
+  </si>
+  <si>
+    <t>6.2 - Geotextile or Geogrid</t>
+  </si>
+  <si>
+    <t>6.3 - Concrete Subbase</t>
+  </si>
+  <si>
+    <t>6.4 - Geotextile or Geogrid</t>
+  </si>
+  <si>
+    <t>CONFORMANCE CRITERIA: Either Geo Textile or Geo grid can be placed below the concrete subbase</t>
+  </si>
+  <si>
+    <t>7.1 - Emulsion tack coat</t>
+  </si>
+  <si>
+    <t>7.2 - Blinding</t>
+  </si>
+  <si>
+    <t>7.3 - Chipseal</t>
+  </si>
+  <si>
+    <t>7.4 - AC 14 RW 30 -PG 64 H - 70mm</t>
+  </si>
+  <si>
+    <t>7.5 - AC 14 RW 30 -PG 64 H - 70mm</t>
+  </si>
+  <si>
+    <t>7.6 - AC 14 RW 30 -PG 64 H - 70mm</t>
+  </si>
+  <si>
+    <t>7.7 - AC 14 RW 30 -PG 64 H - 70mm</t>
+  </si>
+  <si>
+    <t>7.8 - AC 14 RW 30 -PG 64 H - 70mm</t>
+  </si>
+  <si>
+    <t>7.14 - AC14 PMBRW15- PG 64 V (Top layer)-55mm</t>
+  </si>
+  <si>
+    <t>7.15 - AC14 PMBRW15- PG 64 V (Top layer)-55mm</t>
+  </si>
+  <si>
+    <t>7.16 - AC14 PMBRW15- PG 64 V (Top layer)-55mm</t>
+  </si>
+  <si>
+    <t>7.17 - AC14 PMBRW15- PG 64 V (Top layer)-55mm</t>
+  </si>
+  <si>
+    <t>7.18 - AC14 PMBRW15- PG 64 V (Top layer)-55mm</t>
+  </si>
+  <si>
+    <t>7.19 - AC14RW30 / AC14 PMB RW 15</t>
+  </si>
+  <si>
+    <t>7.21 - AC14RW30 / AC14 PMB RW 15</t>
+  </si>
+  <si>
+    <t>7.20 - AC14RW30 / AC14 PMB RW 15</t>
+  </si>
+  <si>
+    <t>Sealing - Grade 4 or Tack/Blind if paving on granular surface.</t>
+  </si>
+  <si>
+    <t>Subbase (IF the exixsting base or subbase material is less than 300mm) Contingency plan</t>
+  </si>
+  <si>
+    <t>Subbase (IF the exixsting base or subbase material is less than 300mm)</t>
+  </si>
+  <si>
+    <t>Trench Repair pavement and Right Turn Bay (Detail 2 &amp; Detail 3) SUBGRADE</t>
+  </si>
+  <si>
+    <t>4.20 - AC14RW30 / AC14 PMB RW 15</t>
+  </si>
+  <si>
+    <t>Concrete Subbase</t>
+  </si>
+  <si>
+    <t>INSPECTION / TEST METHOD (Submission, Visual Inspection, Testing, Measurement, Review): CBR greater than 1%</t>
+  </si>
+  <si>
+    <t>○ No visual movement or cracking in the existing subgrade.</t>
+  </si>
+  <si>
+    <t>CONFORMANCE CRITERIA: The Scala Penetrometer testing shall be undertaken to a depth 1m below the design subgrade level. If CBR less than 3.5%:</t>
+  </si>
+  <si>
+    <t>INSPECTION / TEST METHOD (Submission, Visual Inspection, Testing, Measurement, Review): CAT60 cationic emulsion or approved alternative</t>
+  </si>
+  <si>
+    <t>○ 0.6 (minimum residual) to 0.9 lt/m2</t>
+  </si>
+  <si>
+    <t>○ Proof rolling - continuous</t>
+  </si>
+  <si>
+    <t>INSPECTION / TEST METHOD (Submission, Visual Inspection, Testing, Measurement, Review): Check weather reports</t>
+  </si>
+  <si>
+    <t>INSPECTION / TEST METHOD (Submission, Visual Inspection, Testing, Measurement, Review): Asphalt Temperature</t>
+  </si>
+  <si>
+    <t>○ Amount of asphalt laid average calcaulated asphalt thickness etc</t>
+  </si>
+  <si>
+    <t>INSPECTION / TEST METHOD (Submission, Visual Inspection, Testing, Measurement, Review): Ensure previous layer is broomed clean</t>
+  </si>
+  <si>
+    <t>○ Free of detritius and loose material</t>
+  </si>
+  <si>
+    <t>INSPECTION / TEST METHOD (Submission, Visual Inspection, Testing, Measurement, Review): Production tests NZTA M/10</t>
+  </si>
+  <si>
+    <t>INSPECTION / TEST METHOD (Submission, Visual Inspection, Testing, Measurement, Review): Surface finish inspection</t>
+  </si>
+  <si>
+    <t>○ Uniform texture, no roller marks, no bleeding, cracking or shoving, no crushing of the aggregate.</t>
+  </si>
+  <si>
+    <t>INSPECTION / TEST METHOD (Submission, Visual Inspection, Testing, Measurement, Review): Density testing</t>
+  </si>
+  <si>
+    <t>○ Air voids to meet NZTA M/10:2020 +3% / -2%</t>
+  </si>
+  <si>
+    <t>CONFORMANCE CRITERIA: Paved Area: Air voids, in accordance with NZTA M/10 (2020)</t>
+  </si>
+  <si>
+    <t>○ Testing undertaken in accordance with NZTA M/10</t>
+  </si>
+  <si>
+    <t>INSPECTION / TEST METHOD (Submission, Visual Inspection, Testing, Measurement, Review): Thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> – Depth should not be less than design asphalt depth of thickness</t>
+  </si>
+  <si>
+    <t>○ +0 / -20mm to design level</t>
+  </si>
+  <si>
+    <t>INSPECTION / TEST METHOD (Submission, Visual Inspection, Testing, Measurement, Review): CBR greater than 3.5% below 490mm from the design level</t>
+  </si>
+  <si>
+    <t>CONFORMANCE CRITERIA: Granular subgrade improvement material such as sand, GAP40, GAP65 or GAP100 with a minimum 4 days soaked CBR of 15% may be used. All granular subgrade improvement layer shall be compacted in layer(s) with layer thickness between 2.5 and 4 times the norminal maximum aggregate size. The preferred sil material is geotextile warpped sand (Woodhill). Other granular sil material must be placed on CLass C geotextile and geogrid triax TX170 or similar equivalent and shall not be used unless accepted by the engineer.</t>
+  </si>
+  <si>
+    <t>CONFORMANCE CRITERIA: Granular subgrade improvement material such as sand, GAP40, GAP65 or GAP100 with a minimum 4 days soaked CBR of 15% may be used. All granular subgrade improvement layer shall be compacted in layer(s) with layer thickness between 2.5 and 4 times the nominal maximum aggregate size. The preffered sil material is geotextile wrapped sand (Woodhill). Other granular sil material must be placed on Class C geotextile and geogrid triax TX170 or similar equivalent and shall not be used unless accepted by the engineer.</t>
+  </si>
+  <si>
+    <t>Left Turn Slip lane Wideneing and Wider traffic Island reinstatement Area (Detail 1) SUBGRADE</t>
+  </si>
+  <si>
+    <t>2.2 - Insitu Subgrade Testing</t>
+  </si>
+  <si>
+    <t>○ No fog, rain or wet surface. Base temp ≥ 5o C</t>
+  </si>
+  <si>
+    <t>INSPECTION / TEST METHOD (Submission, Visual Inspection, Testing, Measurement, Review): (+10 / -10mm)</t>
+  </si>
+  <si>
+    <t>FREQUENCY: 1/300m2 or min 8 cores</t>
+  </si>
+  <si>
+    <t>INSPECTION / TEST METHOD (Submission, Visual Inspection, Testing, Measurement, Review): 740mm (Undercut areas ) and 490mm ( if existing pavement thickness is less than 300mm) and 190mm ( if existing pavment thickness is 300mm</t>
+  </si>
+  <si>
+    <t>5.2 - Insitu Subgrade Testing</t>
+  </si>
+  <si>
+    <t>CONFORMANCE CRITERIA: The Scala Penetrometer testing shall be undertaken to a depth 740mm below the design level. If CBR is less than 3.5%:</t>
+  </si>
+  <si>
+    <t>7.9 - AC 14 RW 30 -PG 64 H (second layer)-65mm</t>
+  </si>
+  <si>
+    <t>7.1 - AC 14 RW 30 -PG 64 H (second layer)-65mm</t>
+  </si>
+  <si>
+    <t>7.11 - AC 14 RW 30 -PG 64 H (second layer)-65mm</t>
+  </si>
+  <si>
+    <t>7.12 - AC 14 RW 30 -PG 64 H (second layer)-65mm</t>
+  </si>
+  <si>
+    <t>7.13 - AC 14 RW 30 -PG 64 H (second layer)-65mm</t>
   </si>
 </sst>
 </file>
@@ -241,7 +1375,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -445,6 +1579,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -606,13 +1752,22 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -988,10 +2143,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D45572-CFED-4CA4-A1B6-303542CA6BBC}">
-  <dimension ref="A1:I152"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I1036"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H591"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,7 +2192,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
@@ -1046,11 +2202,11 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1058,81 +2214,7710 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
+      <c r="B11" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>12</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>12</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>12</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>12</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>12</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>12</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>12</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>12</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>12</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>12</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>12</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>12</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>12</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>12</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B150" s="4" t="s">
+    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="5" t="s">
+    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B151" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="5" t="s">
+      <c r="B116" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B152" s="5" t="s">
+      <c r="B117" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I138" s="1"/>
+    </row>
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B140" s="3" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>12</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>12</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>12</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>12</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>12</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>12</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>12</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>12</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>12</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>12</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>12</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>12</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>12</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>12</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>12</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>12</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>12</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>12</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>12</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>12</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>12</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>12</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>12</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>12</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>12</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>12</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>12</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>12</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>12</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>12</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>12</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>12</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>12</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>12</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>12</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>12</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>12</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>12</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>12</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>12</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>12</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>12</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>12</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>12</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>12</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>12</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>12</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>12</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>12</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>12</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>12</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>12</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>12</v>
+      </c>
+      <c r="B207" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>12</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>12</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="216" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="217" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="218" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="219" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="220" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="222" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="223" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="224" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D231" s="1"/>
+      <c r="E231" s="1"/>
+      <c r="F231" s="1"/>
+      <c r="G231" s="1"/>
+      <c r="H231" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I231" s="1"/>
+    </row>
+    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>12</v>
+      </c>
+      <c r="B234" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>12</v>
+      </c>
+      <c r="B235" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>12</v>
+      </c>
+      <c r="B236" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>12</v>
+      </c>
+      <c r="B237" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>12</v>
+      </c>
+      <c r="B238" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>12</v>
+      </c>
+      <c r="B239" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>12</v>
+      </c>
+      <c r="B240" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>12</v>
+      </c>
+      <c r="B242" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>12</v>
+      </c>
+      <c r="B243" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>12</v>
+      </c>
+      <c r="B244" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>12</v>
+      </c>
+      <c r="B245" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>12</v>
+      </c>
+      <c r="B246" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>12</v>
+      </c>
+      <c r="B247" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>12</v>
+      </c>
+      <c r="B248" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>12</v>
+      </c>
+      <c r="B251" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>12</v>
+      </c>
+      <c r="B252" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>12</v>
+      </c>
+      <c r="B253" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>12</v>
+      </c>
+      <c r="B254" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>12</v>
+      </c>
+      <c r="B255" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>12</v>
+      </c>
+      <c r="B256" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>12</v>
+      </c>
+      <c r="B257" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>12</v>
+      </c>
+      <c r="B259" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>12</v>
+      </c>
+      <c r="B260" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>12</v>
+      </c>
+      <c r="B261" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>12</v>
+      </c>
+      <c r="B262" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>12</v>
+      </c>
+      <c r="B263" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>12</v>
+      </c>
+      <c r="B264" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>12</v>
+      </c>
+      <c r="B265" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>12</v>
+      </c>
+      <c r="B267" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>12</v>
+      </c>
+      <c r="B268" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>12</v>
+      </c>
+      <c r="B269" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>12</v>
+      </c>
+      <c r="B270" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>12</v>
+      </c>
+      <c r="B271" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>12</v>
+      </c>
+      <c r="B272" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>12</v>
+      </c>
+      <c r="B273" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>12</v>
+      </c>
+      <c r="B275" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>12</v>
+      </c>
+      <c r="B276" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>12</v>
+      </c>
+      <c r="B277" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>12</v>
+      </c>
+      <c r="B278" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>12</v>
+      </c>
+      <c r="B279" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>12</v>
+      </c>
+      <c r="B280" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>12</v>
+      </c>
+      <c r="B281" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>12</v>
+      </c>
+      <c r="B283" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>12</v>
+      </c>
+      <c r="B284" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>12</v>
+      </c>
+      <c r="B285" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>12</v>
+      </c>
+      <c r="B286" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>12</v>
+      </c>
+      <c r="B287" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>12</v>
+      </c>
+      <c r="B288" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>12</v>
+      </c>
+      <c r="B289" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>12</v>
+      </c>
+      <c r="B290" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>12</v>
+      </c>
+      <c r="B292" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>12</v>
+      </c>
+      <c r="B293" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>12</v>
+      </c>
+      <c r="B294" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>12</v>
+      </c>
+      <c r="B295" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>12</v>
+      </c>
+      <c r="B296" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>12</v>
+      </c>
+      <c r="B297" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>12</v>
+      </c>
+      <c r="B298" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>12</v>
+      </c>
+      <c r="B299" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>12</v>
+      </c>
+      <c r="B302" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>12</v>
+      </c>
+      <c r="B303" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>12</v>
+      </c>
+      <c r="B304" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>12</v>
+      </c>
+      <c r="B305" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>12</v>
+      </c>
+      <c r="B306" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>12</v>
+      </c>
+      <c r="B307" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>12</v>
+      </c>
+      <c r="B308" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>12</v>
+      </c>
+      <c r="B310" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>12</v>
+      </c>
+      <c r="B311" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>12</v>
+      </c>
+      <c r="B312" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>12</v>
+      </c>
+      <c r="B313" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>12</v>
+      </c>
+      <c r="B314" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>12</v>
+      </c>
+      <c r="B315" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>12</v>
+      </c>
+      <c r="B316" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B318" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B319" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B320" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="321" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="322" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="323" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="324" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="325" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="326" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="327" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="328" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="329" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="330" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="331" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="332" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="333" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="334" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="335" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="336" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D337" s="1"/>
+      <c r="E337" s="1"/>
+      <c r="F337" s="1"/>
+      <c r="G337" s="1"/>
+      <c r="H337" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I337" s="1"/>
+    </row>
+    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B339" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>12</v>
+      </c>
+      <c r="B340" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>12</v>
+      </c>
+      <c r="B341" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>12</v>
+      </c>
+      <c r="B342" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>12</v>
+      </c>
+      <c r="B343" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>12</v>
+      </c>
+      <c r="B344" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B345" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>12</v>
+      </c>
+      <c r="B346" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>12</v>
+      </c>
+      <c r="B347" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B348" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B350" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>12</v>
+      </c>
+      <c r="B351" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>12</v>
+      </c>
+      <c r="B352" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>12</v>
+      </c>
+      <c r="B353" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>12</v>
+      </c>
+      <c r="B354" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>12</v>
+      </c>
+      <c r="B355" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>12</v>
+      </c>
+      <c r="B356" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>12</v>
+      </c>
+      <c r="B357" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B358" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>12</v>
+      </c>
+      <c r="B359" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>12</v>
+      </c>
+      <c r="B360" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>12</v>
+      </c>
+      <c r="B361" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>12</v>
+      </c>
+      <c r="B362" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>12</v>
+      </c>
+      <c r="B363" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>12</v>
+      </c>
+      <c r="B364" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>12</v>
+      </c>
+      <c r="B365" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>12</v>
+      </c>
+      <c r="B368" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>12</v>
+      </c>
+      <c r="B369" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>12</v>
+      </c>
+      <c r="B370" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>12</v>
+      </c>
+      <c r="B371" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>12</v>
+      </c>
+      <c r="B372" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>12</v>
+      </c>
+      <c r="B373" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>12</v>
+      </c>
+      <c r="B374" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B375" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>12</v>
+      </c>
+      <c r="B376" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>12</v>
+      </c>
+      <c r="B377" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>12</v>
+      </c>
+      <c r="B378" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>12</v>
+      </c>
+      <c r="B379" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>12</v>
+      </c>
+      <c r="B380" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>12</v>
+      </c>
+      <c r="B381" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>12</v>
+      </c>
+      <c r="B382" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>12</v>
+      </c>
+      <c r="B383" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A384" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B384" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>12</v>
+      </c>
+      <c r="B385" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>12</v>
+      </c>
+      <c r="B386" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>12</v>
+      </c>
+      <c r="B387" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>12</v>
+      </c>
+      <c r="B388" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>12</v>
+      </c>
+      <c r="B389" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>12</v>
+      </c>
+      <c r="B390" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>12</v>
+      </c>
+      <c r="B391" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A392" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A393" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B393" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>12</v>
+      </c>
+      <c r="B394" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>12</v>
+      </c>
+      <c r="B395" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>12</v>
+      </c>
+      <c r="B396" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>12</v>
+      </c>
+      <c r="B397" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>12</v>
+      </c>
+      <c r="B398" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>12</v>
+      </c>
+      <c r="B399" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>12</v>
+      </c>
+      <c r="B400" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A401" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A402" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B402" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A403" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B403" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A404" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B404" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="406" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="407" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="408" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="409" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="410" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="411" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="412" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="413" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="414" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="415" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="416" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="417" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="418" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="419" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="420" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="421" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A422" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D422" s="1"/>
+      <c r="E422" s="1"/>
+      <c r="F422" s="1"/>
+      <c r="G422" s="1"/>
+      <c r="H422" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I422" s="1"/>
+    </row>
+    <row r="423" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A423" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A424" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B424" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A425" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B425" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>12</v>
+      </c>
+      <c r="B426" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>12</v>
+      </c>
+      <c r="B427" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>12</v>
+      </c>
+      <c r="B428" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>12</v>
+      </c>
+      <c r="B429" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>12</v>
+      </c>
+      <c r="B430" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A431" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B431" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A432" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B432" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A433" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B433" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>12</v>
+      </c>
+      <c r="B434" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>12</v>
+      </c>
+      <c r="B435" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>12</v>
+      </c>
+      <c r="B436" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>12</v>
+      </c>
+      <c r="B437" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>12</v>
+      </c>
+      <c r="B438" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A439" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B439" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A440" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B440" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A441" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B441" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>12</v>
+      </c>
+      <c r="B442" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>12</v>
+      </c>
+      <c r="B443" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>12</v>
+      </c>
+      <c r="B444" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>12</v>
+      </c>
+      <c r="B445" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>12</v>
+      </c>
+      <c r="B446" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A447" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B447" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A448" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B448" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A449" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B449" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>12</v>
+      </c>
+      <c r="B450" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>12</v>
+      </c>
+      <c r="B451" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>12</v>
+      </c>
+      <c r="B452" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>12</v>
+      </c>
+      <c r="B453" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>12</v>
+      </c>
+      <c r="B454" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A455" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B455" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A456" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B456" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>12</v>
+      </c>
+      <c r="B457" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>12</v>
+      </c>
+      <c r="B458" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>12</v>
+      </c>
+      <c r="B459" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>12</v>
+      </c>
+      <c r="B460" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>12</v>
+      </c>
+      <c r="B461" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>12</v>
+      </c>
+      <c r="B462" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A463" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B463" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A464" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B464" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>12</v>
+      </c>
+      <c r="B465" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>12</v>
+      </c>
+      <c r="B466" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>12</v>
+      </c>
+      <c r="B467" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>12</v>
+      </c>
+      <c r="B468" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>12</v>
+      </c>
+      <c r="B469" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A470" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B470" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A471" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B471" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A472" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B472" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>12</v>
+      </c>
+      <c r="B473" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>12</v>
+      </c>
+      <c r="B474" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>12</v>
+      </c>
+      <c r="B475" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>12</v>
+      </c>
+      <c r="B476" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>12</v>
+      </c>
+      <c r="B477" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A478" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B478" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A479" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B479" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A480" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B480" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>12</v>
+      </c>
+      <c r="B481" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>12</v>
+      </c>
+      <c r="B482" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>12</v>
+      </c>
+      <c r="B483" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>12</v>
+      </c>
+      <c r="B484" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>12</v>
+      </c>
+      <c r="B485" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A486" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B486" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A487" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B487" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A488" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B488" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>12</v>
+      </c>
+      <c r="B489" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>12</v>
+      </c>
+      <c r="B490" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>12</v>
+      </c>
+      <c r="B491" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>12</v>
+      </c>
+      <c r="B492" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>12</v>
+      </c>
+      <c r="B493" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A494" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B494" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A495" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B495" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>12</v>
+      </c>
+      <c r="B496" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>12</v>
+      </c>
+      <c r="B497" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>12</v>
+      </c>
+      <c r="B498" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>12</v>
+      </c>
+      <c r="B499" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>12</v>
+      </c>
+      <c r="B500" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>12</v>
+      </c>
+      <c r="B501" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A502" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B502" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A503" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B503" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>12</v>
+      </c>
+      <c r="B504" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>12</v>
+      </c>
+      <c r="B505" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>12</v>
+      </c>
+      <c r="B506" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>12</v>
+      </c>
+      <c r="B507" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>12</v>
+      </c>
+      <c r="B508" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A509" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B509" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A510" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B510" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A511" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B511" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>12</v>
+      </c>
+      <c r="B512" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>12</v>
+      </c>
+      <c r="B513" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>12</v>
+      </c>
+      <c r="B514" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>12</v>
+      </c>
+      <c r="B515" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>12</v>
+      </c>
+      <c r="B516" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A517" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B517" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A518" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B518" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A519" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B519" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>12</v>
+      </c>
+      <c r="B520" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>12</v>
+      </c>
+      <c r="B521" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>12</v>
+      </c>
+      <c r="B522" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>12</v>
+      </c>
+      <c r="B523" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>12</v>
+      </c>
+      <c r="B524" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A525" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B525" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A526" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B526" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A527" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B527" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>12</v>
+      </c>
+      <c r="B528" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>12</v>
+      </c>
+      <c r="B529" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>12</v>
+      </c>
+      <c r="B530" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>12</v>
+      </c>
+      <c r="B531" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>12</v>
+      </c>
+      <c r="B532" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A533" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B533" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A534" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B534" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A535" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B535" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>12</v>
+      </c>
+      <c r="B536" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>12</v>
+      </c>
+      <c r="B537" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>12</v>
+      </c>
+      <c r="B538" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>12</v>
+      </c>
+      <c r="B539" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>12</v>
+      </c>
+      <c r="B540" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A541" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B541" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A542" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B542" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A543" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B543" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>12</v>
+      </c>
+      <c r="B544" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>12</v>
+      </c>
+      <c r="B545" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>12</v>
+      </c>
+      <c r="B546" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>12</v>
+      </c>
+      <c r="B547" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>12</v>
+      </c>
+      <c r="B548" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A549" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B549" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A550" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B550" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A551" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B551" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>12</v>
+      </c>
+      <c r="B552" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>12</v>
+      </c>
+      <c r="B553" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>12</v>
+      </c>
+      <c r="B554" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>12</v>
+      </c>
+      <c r="B555" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>12</v>
+      </c>
+      <c r="B556" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A557" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B557" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A558" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B558" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A559" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B559" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>12</v>
+      </c>
+      <c r="B560" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>12</v>
+      </c>
+      <c r="B561" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>12</v>
+      </c>
+      <c r="B562" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>12</v>
+      </c>
+      <c r="B563" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>12</v>
+      </c>
+      <c r="B564" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A565" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B565" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A566" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B566" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A567" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B567" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A568" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B568" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A569" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B569" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A570" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B570" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A571" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B571" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="573" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="574" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="575" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="576" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="577" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="578" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="579" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="580" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="581" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="582" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="583" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="584" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="585" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="586" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="587" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="588" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="589" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="590" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="591" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A591" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B591" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C591" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D591" s="1"/>
+      <c r="E591" s="1"/>
+      <c r="F591" s="1"/>
+      <c r="G591" s="1"/>
+      <c r="H591" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I591" s="1"/>
+    </row>
+    <row r="592" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A592" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B592" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A593" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B593" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>12</v>
+      </c>
+      <c r="B594" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>12</v>
+      </c>
+      <c r="B595" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>12</v>
+      </c>
+      <c r="B596" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>12</v>
+      </c>
+      <c r="B597" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>12</v>
+      </c>
+      <c r="B598" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>12</v>
+      </c>
+      <c r="B599" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A600" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B600" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>12</v>
+      </c>
+      <c r="B601" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>12</v>
+      </c>
+      <c r="B602" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>12</v>
+      </c>
+      <c r="B603" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>12</v>
+      </c>
+      <c r="B604" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>12</v>
+      </c>
+      <c r="B605" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>12</v>
+      </c>
+      <c r="B606" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A607" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B607" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>12</v>
+      </c>
+      <c r="B608" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>12</v>
+      </c>
+      <c r="B609" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>12</v>
+      </c>
+      <c r="B610" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>12</v>
+      </c>
+      <c r="B611" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>12</v>
+      </c>
+      <c r="B612" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>12</v>
+      </c>
+      <c r="B613" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A614" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B614" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A615" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B615" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>12</v>
+      </c>
+      <c r="B616" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>12</v>
+      </c>
+      <c r="B617" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>12</v>
+      </c>
+      <c r="B618" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>12</v>
+      </c>
+      <c r="B619" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>12</v>
+      </c>
+      <c r="B620" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>12</v>
+      </c>
+      <c r="B621" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A622" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B622" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>12</v>
+      </c>
+      <c r="B623" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>12</v>
+      </c>
+      <c r="B624" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>12</v>
+      </c>
+      <c r="B625" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>12</v>
+      </c>
+      <c r="B626" s="7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>12</v>
+      </c>
+      <c r="B627" s="7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>12</v>
+      </c>
+      <c r="B628" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>12</v>
+      </c>
+      <c r="B629" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>12</v>
+      </c>
+      <c r="B630" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A631" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B631" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A632" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B632" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>12</v>
+      </c>
+      <c r="B633" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>12</v>
+      </c>
+      <c r="B634" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>12</v>
+      </c>
+      <c r="B635" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
+        <v>12</v>
+      </c>
+      <c r="B636" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
+        <v>12</v>
+      </c>
+      <c r="B637" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A638" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B638" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A639" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B639" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A640" t="s">
+        <v>12</v>
+      </c>
+      <c r="B640" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>12</v>
+      </c>
+      <c r="B641" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
+        <v>12</v>
+      </c>
+      <c r="B642" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A643" t="s">
+        <v>12</v>
+      </c>
+      <c r="B643" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A644" t="s">
+        <v>12</v>
+      </c>
+      <c r="B644" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A645" t="s">
+        <v>12</v>
+      </c>
+      <c r="B645" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A646" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B646" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A647" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B647" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>12</v>
+      </c>
+      <c r="B648" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>12</v>
+      </c>
+      <c r="B649" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>12</v>
+      </c>
+      <c r="B650" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A651" t="s">
+        <v>12</v>
+      </c>
+      <c r="B651" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A652" t="s">
+        <v>12</v>
+      </c>
+      <c r="B652" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
+        <v>12</v>
+      </c>
+      <c r="B653" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A654" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B654" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A655" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B655" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
+        <v>12</v>
+      </c>
+      <c r="B656" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
+        <v>12</v>
+      </c>
+      <c r="B657" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
+        <v>12</v>
+      </c>
+      <c r="B658" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A659" t="s">
+        <v>12</v>
+      </c>
+      <c r="B659" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A660" t="s">
+        <v>12</v>
+      </c>
+      <c r="B660" s="7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A661" t="s">
+        <v>12</v>
+      </c>
+      <c r="B661" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A662" t="s">
+        <v>12</v>
+      </c>
+      <c r="B662" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A663" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B663" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A664" t="s">
+        <v>12</v>
+      </c>
+      <c r="B664" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A665" t="s">
+        <v>12</v>
+      </c>
+      <c r="B665" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A666" t="s">
+        <v>12</v>
+      </c>
+      <c r="B666" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A667" t="s">
+        <v>12</v>
+      </c>
+      <c r="B667" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A668" t="s">
+        <v>12</v>
+      </c>
+      <c r="B668" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A669" t="s">
+        <v>12</v>
+      </c>
+      <c r="B669" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A670" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B670" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A671" t="s">
+        <v>12</v>
+      </c>
+      <c r="B671" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A672" t="s">
+        <v>12</v>
+      </c>
+      <c r="B672" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A673" t="s">
+        <v>12</v>
+      </c>
+      <c r="B673" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A674" t="s">
+        <v>12</v>
+      </c>
+      <c r="B674" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A675" t="s">
+        <v>12</v>
+      </c>
+      <c r="B675" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A676" t="s">
+        <v>12</v>
+      </c>
+      <c r="B676" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A677" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B677" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A678" t="s">
+        <v>12</v>
+      </c>
+      <c r="B678" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A679" t="s">
+        <v>12</v>
+      </c>
+      <c r="B679" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A680" t="s">
+        <v>12</v>
+      </c>
+      <c r="B680" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A681" t="s">
+        <v>12</v>
+      </c>
+      <c r="B681" s="7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A682" t="s">
+        <v>12</v>
+      </c>
+      <c r="B682" s="7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A683" t="s">
+        <v>12</v>
+      </c>
+      <c r="B683" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A684" t="s">
+        <v>12</v>
+      </c>
+      <c r="B684" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A685" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B685" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A686" t="s">
+        <v>12</v>
+      </c>
+      <c r="B686" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A687" t="s">
+        <v>12</v>
+      </c>
+      <c r="B687" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A688" t="s">
+        <v>12</v>
+      </c>
+      <c r="B688" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A689" t="s">
+        <v>12</v>
+      </c>
+      <c r="B689" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A690" t="s">
+        <v>12</v>
+      </c>
+      <c r="B690" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A691" t="s">
+        <v>12</v>
+      </c>
+      <c r="B691" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A692" t="s">
+        <v>12</v>
+      </c>
+      <c r="B692" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A693" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B693" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A694" t="s">
+        <v>12</v>
+      </c>
+      <c r="B694" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A695" t="s">
+        <v>12</v>
+      </c>
+      <c r="B695" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A696" t="s">
+        <v>12</v>
+      </c>
+      <c r="B696" s="6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A697" t="s">
+        <v>12</v>
+      </c>
+      <c r="B697" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A698" t="s">
+        <v>12</v>
+      </c>
+      <c r="B698" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A699" t="s">
+        <v>12</v>
+      </c>
+      <c r="B699" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A700" t="s">
+        <v>12</v>
+      </c>
+      <c r="B700" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A701" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B701" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
+        <v>12</v>
+      </c>
+      <c r="B702" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
+        <v>12</v>
+      </c>
+      <c r="B703" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
+        <v>12</v>
+      </c>
+      <c r="B704" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A705" t="s">
+        <v>12</v>
+      </c>
+      <c r="B705" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A706" t="s">
+        <v>12</v>
+      </c>
+      <c r="B706" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A707" t="s">
+        <v>12</v>
+      </c>
+      <c r="B707" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A708" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B708" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A709" t="s">
+        <v>12</v>
+      </c>
+      <c r="B709" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A710" t="s">
+        <v>12</v>
+      </c>
+      <c r="B710" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A711" t="s">
+        <v>12</v>
+      </c>
+      <c r="B711" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A712" t="s">
+        <v>12</v>
+      </c>
+      <c r="B712" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A713" t="s">
+        <v>12</v>
+      </c>
+      <c r="B713" s="7" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A714" t="s">
+        <v>12</v>
+      </c>
+      <c r="B714" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A715" t="s">
+        <v>12</v>
+      </c>
+      <c r="B715" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A716" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B716" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A717" t="s">
+        <v>12</v>
+      </c>
+      <c r="B717" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
+        <v>12</v>
+      </c>
+      <c r="B718" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A719" t="s">
+        <v>12</v>
+      </c>
+      <c r="B719" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
+        <v>12</v>
+      </c>
+      <c r="B720" s="7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
+        <v>12</v>
+      </c>
+      <c r="B721" s="7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A722" t="s">
+        <v>12</v>
+      </c>
+      <c r="B722" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A723" t="s">
+        <v>12</v>
+      </c>
+      <c r="B723" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A724" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B724" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A725" t="s">
+        <v>12</v>
+      </c>
+      <c r="B725" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A726" t="s">
+        <v>12</v>
+      </c>
+      <c r="B726" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A727" t="s">
+        <v>12</v>
+      </c>
+      <c r="B727" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A728" t="s">
+        <v>12</v>
+      </c>
+      <c r="B728" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A729" t="s">
+        <v>12</v>
+      </c>
+      <c r="B729" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A730" t="s">
+        <v>12</v>
+      </c>
+      <c r="B730" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A731" t="s">
+        <v>12</v>
+      </c>
+      <c r="B731" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A732" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B732" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A733" t="s">
+        <v>12</v>
+      </c>
+      <c r="B733" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A734" t="s">
+        <v>12</v>
+      </c>
+      <c r="B734" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A735" t="s">
+        <v>12</v>
+      </c>
+      <c r="B735" s="6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A736" t="s">
+        <v>12</v>
+      </c>
+      <c r="B736" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A737" t="s">
+        <v>12</v>
+      </c>
+      <c r="B737" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A738" t="s">
+        <v>12</v>
+      </c>
+      <c r="B738" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A739" t="s">
+        <v>12</v>
+      </c>
+      <c r="B739" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A740" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B740" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A741" t="s">
+        <v>12</v>
+      </c>
+      <c r="B741" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A742" t="s">
+        <v>12</v>
+      </c>
+      <c r="B742" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A743" t="s">
+        <v>12</v>
+      </c>
+      <c r="B743" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A744" t="s">
+        <v>12</v>
+      </c>
+      <c r="B744" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A745" t="s">
+        <v>12</v>
+      </c>
+      <c r="B745" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A746" t="s">
+        <v>12</v>
+      </c>
+      <c r="B746" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A747" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B747" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A748" t="s">
+        <v>12</v>
+      </c>
+      <c r="B748" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A749" t="s">
+        <v>12</v>
+      </c>
+      <c r="B749" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A750" t="s">
+        <v>12</v>
+      </c>
+      <c r="B750" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A751" t="s">
+        <v>12</v>
+      </c>
+      <c r="B751" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A752" t="s">
+        <v>12</v>
+      </c>
+      <c r="B752" s="7" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A753" t="s">
+        <v>12</v>
+      </c>
+      <c r="B753" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A754" t="s">
+        <v>12</v>
+      </c>
+      <c r="B754" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A755" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B755" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A756" t="s">
+        <v>12</v>
+      </c>
+      <c r="B756" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A757" t="s">
+        <v>12</v>
+      </c>
+      <c r="B757" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A758" t="s">
+        <v>12</v>
+      </c>
+      <c r="B758" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A759" t="s">
+        <v>12</v>
+      </c>
+      <c r="B759" s="7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A760" t="s">
+        <v>12</v>
+      </c>
+      <c r="B760" s="7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A761" t="s">
+        <v>12</v>
+      </c>
+      <c r="B761" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A762" t="s">
+        <v>12</v>
+      </c>
+      <c r="B762" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A763" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B763" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A764" t="s">
+        <v>12</v>
+      </c>
+      <c r="B764" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A765" t="s">
+        <v>12</v>
+      </c>
+      <c r="B765" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A766" t="s">
+        <v>12</v>
+      </c>
+      <c r="B766" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A767" t="s">
+        <v>12</v>
+      </c>
+      <c r="B767" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A768" t="s">
+        <v>12</v>
+      </c>
+      <c r="B768" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A769" t="s">
+        <v>12</v>
+      </c>
+      <c r="B769" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A770" t="s">
+        <v>12</v>
+      </c>
+      <c r="B770" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A771" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B771" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A772" t="s">
+        <v>12</v>
+      </c>
+      <c r="B772" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A773" t="s">
+        <v>12</v>
+      </c>
+      <c r="B773" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A774" t="s">
+        <v>12</v>
+      </c>
+      <c r="B774" s="6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A775" t="s">
+        <v>12</v>
+      </c>
+      <c r="B775" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A776" t="s">
+        <v>12</v>
+      </c>
+      <c r="B776" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A777" t="s">
+        <v>12</v>
+      </c>
+      <c r="B777" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A778" t="s">
+        <v>12</v>
+      </c>
+      <c r="B778" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A779" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B779" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A780" t="s">
+        <v>12</v>
+      </c>
+      <c r="B780" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A781" t="s">
+        <v>12</v>
+      </c>
+      <c r="B781" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A782" t="s">
+        <v>12</v>
+      </c>
+      <c r="B782" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A783" t="s">
+        <v>12</v>
+      </c>
+      <c r="B783" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A784" t="s">
+        <v>12</v>
+      </c>
+      <c r="B784" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A785" t="s">
+        <v>12</v>
+      </c>
+      <c r="B785" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A786" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B786" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A787" t="s">
+        <v>12</v>
+      </c>
+      <c r="B787" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A788" t="s">
+        <v>12</v>
+      </c>
+      <c r="B788" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A789" t="s">
+        <v>12</v>
+      </c>
+      <c r="B789" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A790" t="s">
+        <v>12</v>
+      </c>
+      <c r="B790" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A791" t="s">
+        <v>12</v>
+      </c>
+      <c r="B791" s="7" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A792" t="s">
+        <v>12</v>
+      </c>
+      <c r="B792" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A793" t="s">
+        <v>12</v>
+      </c>
+      <c r="B793" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A794" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B794" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A795" t="s">
+        <v>12</v>
+      </c>
+      <c r="B795" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A796" t="s">
+        <v>12</v>
+      </c>
+      <c r="B796" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A797" t="s">
+        <v>12</v>
+      </c>
+      <c r="B797" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A798" t="s">
+        <v>12</v>
+      </c>
+      <c r="B798" s="6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A799" t="s">
+        <v>12</v>
+      </c>
+      <c r="B799" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A800" t="s">
+        <v>12</v>
+      </c>
+      <c r="B800" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A801" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B801" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A802" t="s">
+        <v>12</v>
+      </c>
+      <c r="B802" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A803" t="s">
+        <v>12</v>
+      </c>
+      <c r="B803" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A804" t="s">
+        <v>12</v>
+      </c>
+      <c r="B804" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A805" t="s">
+        <v>12</v>
+      </c>
+      <c r="B805" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A806" t="s">
+        <v>12</v>
+      </c>
+      <c r="B806" s="7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A807" t="s">
+        <v>12</v>
+      </c>
+      <c r="B807" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A808" t="s">
+        <v>12</v>
+      </c>
+      <c r="B808" s="7" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A809" t="s">
+        <v>12</v>
+      </c>
+      <c r="B809" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A810" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B810" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A811" t="s">
+        <v>12</v>
+      </c>
+      <c r="B811" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A812" t="s">
+        <v>12</v>
+      </c>
+      <c r="B812" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A813" t="s">
+        <v>12</v>
+      </c>
+      <c r="B813" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A814" t="s">
+        <v>12</v>
+      </c>
+      <c r="B814" s="7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A815" t="s">
+        <v>12</v>
+      </c>
+      <c r="B815" s="7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A816" t="s">
+        <v>12</v>
+      </c>
+      <c r="B816" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A817" t="s">
+        <v>12</v>
+      </c>
+      <c r="B817" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A818" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B818" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A819" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B819" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A820" t="s">
+        <v>12</v>
+      </c>
+      <c r="B820" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A821" t="s">
+        <v>12</v>
+      </c>
+      <c r="B821" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A822" t="s">
+        <v>12</v>
+      </c>
+      <c r="B822" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A823" t="s">
+        <v>12</v>
+      </c>
+      <c r="B823" s="7" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A824" t="s">
+        <v>12</v>
+      </c>
+      <c r="B824" s="7" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A825" t="s">
+        <v>12</v>
+      </c>
+      <c r="B825" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A826" t="s">
+        <v>12</v>
+      </c>
+      <c r="B826" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A827" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B827" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A828" t="s">
+        <v>12</v>
+      </c>
+      <c r="B828" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A829" t="s">
+        <v>12</v>
+      </c>
+      <c r="B829" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A830" t="s">
+        <v>12</v>
+      </c>
+      <c r="B830" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A831" t="s">
+        <v>12</v>
+      </c>
+      <c r="B831" s="7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A832" t="s">
+        <v>12</v>
+      </c>
+      <c r="B832" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A833" t="s">
+        <v>12</v>
+      </c>
+      <c r="B833" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A834" t="s">
+        <v>12</v>
+      </c>
+      <c r="B834" s="7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A835" t="s">
+        <v>12</v>
+      </c>
+      <c r="B835" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A836" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B836" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A837" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B837" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A838" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B838" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A839" t="s">
+        <v>12</v>
+      </c>
+      <c r="B839" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A840" t="s">
+        <v>12</v>
+      </c>
+      <c r="B840" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A841" t="s">
+        <v>12</v>
+      </c>
+      <c r="B841" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A842" t="s">
+        <v>12</v>
+      </c>
+      <c r="B842" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A843" t="s">
+        <v>12</v>
+      </c>
+      <c r="B843" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A844" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B844" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A845" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B845" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A846" t="s">
+        <v>12</v>
+      </c>
+      <c r="B846" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A847" t="s">
+        <v>12</v>
+      </c>
+      <c r="B847" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A848" t="s">
+        <v>12</v>
+      </c>
+      <c r="B848" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A849" t="s">
+        <v>12</v>
+      </c>
+      <c r="B849" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A850" t="s">
+        <v>12</v>
+      </c>
+      <c r="B850" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A851" t="s">
+        <v>12</v>
+      </c>
+      <c r="B851" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A852" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B852" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A853" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B853" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A854" t="s">
+        <v>12</v>
+      </c>
+      <c r="B854" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A855" t="s">
+        <v>12</v>
+      </c>
+      <c r="B855" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A856" t="s">
+        <v>12</v>
+      </c>
+      <c r="B856" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A857" t="s">
+        <v>12</v>
+      </c>
+      <c r="B857" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A858" t="s">
+        <v>12</v>
+      </c>
+      <c r="B858" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A859" t="s">
+        <v>12</v>
+      </c>
+      <c r="B859" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A860" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B860" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A861" t="s">
+        <v>12</v>
+      </c>
+      <c r="B861" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A862" t="s">
+        <v>12</v>
+      </c>
+      <c r="B862" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A863" t="s">
+        <v>12</v>
+      </c>
+      <c r="B863" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A864" t="s">
+        <v>12</v>
+      </c>
+      <c r="B864" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A865" t="s">
+        <v>12</v>
+      </c>
+      <c r="B865" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A866" t="s">
+        <v>12</v>
+      </c>
+      <c r="B866" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A867" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B867" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A868" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B868" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A869" t="s">
+        <v>12</v>
+      </c>
+      <c r="B869" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A870" t="s">
+        <v>12</v>
+      </c>
+      <c r="B870" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A871" t="s">
+        <v>12</v>
+      </c>
+      <c r="B871" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A872" t="s">
+        <v>12</v>
+      </c>
+      <c r="B872" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A873" t="s">
+        <v>12</v>
+      </c>
+      <c r="B873" s="7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A874" t="s">
+        <v>12</v>
+      </c>
+      <c r="B874" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A875" t="s">
+        <v>12</v>
+      </c>
+      <c r="B875" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A876" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B876" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A877" t="s">
+        <v>12</v>
+      </c>
+      <c r="B877" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A878" t="s">
+        <v>12</v>
+      </c>
+      <c r="B878" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A879" t="s">
+        <v>12</v>
+      </c>
+      <c r="B879" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A880" t="s">
+        <v>12</v>
+      </c>
+      <c r="B880" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A881" t="s">
+        <v>12</v>
+      </c>
+      <c r="B881" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A882" t="s">
+        <v>12</v>
+      </c>
+      <c r="B882" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A883" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B883" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A884" t="s">
+        <v>12</v>
+      </c>
+      <c r="B884" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A885" t="s">
+        <v>12</v>
+      </c>
+      <c r="B885" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A886" t="s">
+        <v>12</v>
+      </c>
+      <c r="B886" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A887" t="s">
+        <v>12</v>
+      </c>
+      <c r="B887" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A888" t="s">
+        <v>12</v>
+      </c>
+      <c r="B888" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A889" t="s">
+        <v>12</v>
+      </c>
+      <c r="B889" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A890" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B890" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A891" t="s">
+        <v>12</v>
+      </c>
+      <c r="B891" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A892" t="s">
+        <v>12</v>
+      </c>
+      <c r="B892" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A893" t="s">
+        <v>12</v>
+      </c>
+      <c r="B893" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A894" t="s">
+        <v>12</v>
+      </c>
+      <c r="B894" s="7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A895" t="s">
+        <v>12</v>
+      </c>
+      <c r="B895" s="7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A896" t="s">
+        <v>12</v>
+      </c>
+      <c r="B896" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A897" t="s">
+        <v>12</v>
+      </c>
+      <c r="B897" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A898" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B898" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A899" t="s">
+        <v>12</v>
+      </c>
+      <c r="B899" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A900" t="s">
+        <v>12</v>
+      </c>
+      <c r="B900" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A901" t="s">
+        <v>12</v>
+      </c>
+      <c r="B901" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A902" t="s">
+        <v>12</v>
+      </c>
+      <c r="B902" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A903" t="s">
+        <v>12</v>
+      </c>
+      <c r="B903" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A904" t="s">
+        <v>12</v>
+      </c>
+      <c r="B904" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A905" t="s">
+        <v>12</v>
+      </c>
+      <c r="B905" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A906" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B906" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A907" t="s">
+        <v>12</v>
+      </c>
+      <c r="B907" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A908" t="s">
+        <v>12</v>
+      </c>
+      <c r="B908" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A909" t="s">
+        <v>12</v>
+      </c>
+      <c r="B909" s="6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A910" t="s">
+        <v>12</v>
+      </c>
+      <c r="B910" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A911" t="s">
+        <v>12</v>
+      </c>
+      <c r="B911" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A912" t="s">
+        <v>12</v>
+      </c>
+      <c r="B912" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A913" t="s">
+        <v>12</v>
+      </c>
+      <c r="B913" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A914" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B914" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A915" t="s">
+        <v>12</v>
+      </c>
+      <c r="B915" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A916" t="s">
+        <v>12</v>
+      </c>
+      <c r="B916" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A917" t="s">
+        <v>12</v>
+      </c>
+      <c r="B917" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A918" t="s">
+        <v>12</v>
+      </c>
+      <c r="B918" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A919" t="s">
+        <v>12</v>
+      </c>
+      <c r="B919" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A920" t="s">
+        <v>12</v>
+      </c>
+      <c r="B920" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A921" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B921" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A922" t="s">
+        <v>12</v>
+      </c>
+      <c r="B922" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A923" t="s">
+        <v>12</v>
+      </c>
+      <c r="B923" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A924" t="s">
+        <v>12</v>
+      </c>
+      <c r="B924" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A925" t="s">
+        <v>12</v>
+      </c>
+      <c r="B925" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A926" t="s">
+        <v>12</v>
+      </c>
+      <c r="B926" s="7" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A927" t="s">
+        <v>12</v>
+      </c>
+      <c r="B927" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A928" t="s">
+        <v>12</v>
+      </c>
+      <c r="B928" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A929" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B929" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A930" t="s">
+        <v>12</v>
+      </c>
+      <c r="B930" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A931" t="s">
+        <v>12</v>
+      </c>
+      <c r="B931" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A932" t="s">
+        <v>12</v>
+      </c>
+      <c r="B932" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A933" t="s">
+        <v>12</v>
+      </c>
+      <c r="B933" s="7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A934" t="s">
+        <v>12</v>
+      </c>
+      <c r="B934" s="7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A935" t="s">
+        <v>12</v>
+      </c>
+      <c r="B935" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A936" t="s">
+        <v>12</v>
+      </c>
+      <c r="B936" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A937" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B937" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A938" t="s">
+        <v>12</v>
+      </c>
+      <c r="B938" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A939" t="s">
+        <v>12</v>
+      </c>
+      <c r="B939" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A940" t="s">
+        <v>12</v>
+      </c>
+      <c r="B940" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A941" t="s">
+        <v>12</v>
+      </c>
+      <c r="B941" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A942" t="s">
+        <v>12</v>
+      </c>
+      <c r="B942" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A943" t="s">
+        <v>12</v>
+      </c>
+      <c r="B943" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A944" t="s">
+        <v>12</v>
+      </c>
+      <c r="B944" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A945" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B945" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A946" t="s">
+        <v>12</v>
+      </c>
+      <c r="B946" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A947" t="s">
+        <v>12</v>
+      </c>
+      <c r="B947" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A948" t="s">
+        <v>12</v>
+      </c>
+      <c r="B948" s="6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A949" t="s">
+        <v>12</v>
+      </c>
+      <c r="B949" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A950" t="s">
+        <v>12</v>
+      </c>
+      <c r="B950" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A951" t="s">
+        <v>12</v>
+      </c>
+      <c r="B951" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A952" t="s">
+        <v>12</v>
+      </c>
+      <c r="B952" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A953" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B953" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A954" t="s">
+        <v>12</v>
+      </c>
+      <c r="B954" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A955" t="s">
+        <v>12</v>
+      </c>
+      <c r="B955" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="956" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A956" t="s">
+        <v>12</v>
+      </c>
+      <c r="B956" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="957" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A957" t="s">
+        <v>12</v>
+      </c>
+      <c r="B957" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="958" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A958" t="s">
+        <v>12</v>
+      </c>
+      <c r="B958" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="959" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A959" t="s">
+        <v>12</v>
+      </c>
+      <c r="B959" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A960" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B960" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="961" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A961" t="s">
+        <v>12</v>
+      </c>
+      <c r="B961" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A962" t="s">
+        <v>12</v>
+      </c>
+      <c r="B962" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="963" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A963" t="s">
+        <v>12</v>
+      </c>
+      <c r="B963" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="964" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A964" t="s">
+        <v>12</v>
+      </c>
+      <c r="B964" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="965" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A965" t="s">
+        <v>12</v>
+      </c>
+      <c r="B965" s="7" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="966" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A966" t="s">
+        <v>12</v>
+      </c>
+      <c r="B966" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="967" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A967" t="s">
+        <v>12</v>
+      </c>
+      <c r="B967" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A968" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B968" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A969" t="s">
+        <v>12</v>
+      </c>
+      <c r="B969" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A970" t="s">
+        <v>12</v>
+      </c>
+      <c r="B970" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="971" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A971" t="s">
+        <v>12</v>
+      </c>
+      <c r="B971" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="972" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A972" t="s">
+        <v>12</v>
+      </c>
+      <c r="B972" s="7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="973" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A973" t="s">
+        <v>12</v>
+      </c>
+      <c r="B973" s="7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="974" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A974" t="s">
+        <v>12</v>
+      </c>
+      <c r="B974" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="975" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A975" t="s">
+        <v>12</v>
+      </c>
+      <c r="B975" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="976" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A976" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B976" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A977" t="s">
+        <v>12</v>
+      </c>
+      <c r="B977" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="978" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A978" t="s">
+        <v>12</v>
+      </c>
+      <c r="B978" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A979" t="s">
+        <v>12</v>
+      </c>
+      <c r="B979" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="980" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A980" t="s">
+        <v>12</v>
+      </c>
+      <c r="B980" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="981" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A981" t="s">
+        <v>12</v>
+      </c>
+      <c r="B981" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A982" t="s">
+        <v>12</v>
+      </c>
+      <c r="B982" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A983" t="s">
+        <v>12</v>
+      </c>
+      <c r="B983" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A984" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B984" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A985" t="s">
+        <v>12</v>
+      </c>
+      <c r="B985" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A986" t="s">
+        <v>12</v>
+      </c>
+      <c r="B986" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A987" t="s">
+        <v>12</v>
+      </c>
+      <c r="B987" s="6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="988" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A988" t="s">
+        <v>12</v>
+      </c>
+      <c r="B988" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="989" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A989" t="s">
+        <v>12</v>
+      </c>
+      <c r="B989" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A990" t="s">
+        <v>12</v>
+      </c>
+      <c r="B990" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="991" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A991" t="s">
+        <v>12</v>
+      </c>
+      <c r="B991" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A992" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B992" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A993" t="s">
+        <v>12</v>
+      </c>
+      <c r="B993" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A994" t="s">
+        <v>12</v>
+      </c>
+      <c r="B994" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="995" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A995" t="s">
+        <v>12</v>
+      </c>
+      <c r="B995" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="996" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A996" t="s">
+        <v>12</v>
+      </c>
+      <c r="B996" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A997" t="s">
+        <v>12</v>
+      </c>
+      <c r="B997" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="998" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A998" t="s">
+        <v>12</v>
+      </c>
+      <c r="B998" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A999" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B999" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1000" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1000" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1001" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1001" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1002" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1002" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1003" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1003" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1004" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1004" s="7" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1005" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1005" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1006" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1006" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1007" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1007" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1008" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1008" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1009" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1009" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1010" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1010" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1011" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1011" s="6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1012" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1012" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1013" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1013" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1014" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1014" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1015" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1015" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1016" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1016" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1017" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1017" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1018" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1018" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1019" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1019" s="7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1020" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1020" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1021" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1021" s="7" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1022" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1022" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1023" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1023" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1024" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1024" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1025" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1025" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1026" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1026" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1027" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1027" s="7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1028" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1028" s="7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1029" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1029" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1030" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1030" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1031" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1031" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1032" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1032" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1033" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1033" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1034" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1034" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1035" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1035" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1036" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1036" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I162" xr:uid="{63D45572-CFED-4CA4-A1B6-303542CA6BBC}"/>
+  <autoFilter ref="A1:I1036" xr:uid="{63D45572-CFED-4CA4-A1B6-303542CA6BBC}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="checklist"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>